--- a/uploaded_files/PL 8 Months.xlsx
+++ b/uploaded_files/PL 8 Months.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adnan/Desktop/Python stuff/sample PLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF86409-881D-724F-A9A5-302C160C212B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DD1AB7-94A1-854E-9D33-F88FB930C771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I135"/>
+  <dimension ref="A2:I136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -928,22 +928,9 @@
     <col min="5" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -954,9 +941,9 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>137</v>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -967,489 +954,489 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B8" s="5">
         <f>17836850</f>
         <v>17836850</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C8" s="5">
         <f>14454576.19</f>
         <v>14454576.189999999</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D8" s="5">
         <f>8001376</f>
         <v>8001376</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="5">
         <f>20927585</f>
         <v>20927585</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="5">
         <f>31076649.5</f>
         <v>31076649.5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <f>34144355</f>
         <v>34144355</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H8" s="5">
         <f>19837550</f>
         <v>19837550</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I8" s="5">
         <f>21502500</f>
         <v>21502500</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B10" s="5">
         <f>843000</f>
         <v>843000</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C10" s="5">
         <f>7449100</f>
         <v>7449100</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D10" s="5">
         <f>1264500</f>
         <v>1264500</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E10" s="5">
         <f>554200</f>
         <v>554200</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F10" s="5">
         <f>346600</f>
         <v>346600</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G10" s="5">
         <f>435000</f>
         <v>435000</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H10" s="5">
         <f>492600</f>
         <v>492600</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I10" s="5">
         <f>1141000</f>
         <v>1141000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6">
-        <f t="shared" ref="B10:I10" si="0">(B8)+(B9)</f>
+      <c r="B11" s="6">
+        <f t="shared" ref="B11:I11" si="0">(B9)+(B10)</f>
         <v>843000</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <f t="shared" si="0"/>
         <v>7449100</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>1264500</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>554200</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>346600</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>435000</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>492600</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>1141000</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B13" s="5">
         <f>7028318.5</f>
         <v>7028318.5</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <f>4254323</f>
         <v>4254323</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D13" s="5">
         <f>4613690</f>
         <v>4613690</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="5">
         <f>11114493.5</f>
         <v>11114493.5</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F13" s="5">
         <f>12212181.5</f>
         <v>12212181.5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G13" s="5">
         <f>15427699</f>
         <v>15427699</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H13" s="5">
         <f>10069890</f>
         <v>10069890</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I13" s="5">
         <f>9445710</f>
         <v>9445710</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B14" s="5">
         <f>152910</f>
         <v>152910</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C14" s="5">
         <f>218736</f>
         <v>218736</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D14" s="5">
         <f>47650</f>
         <v>47650</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="5">
         <f>21600</f>
         <v>21600</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <f>854200</f>
         <v>854200</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G14" s="5">
         <f>1794625</f>
         <v>1794625</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H14" s="5">
         <f>1406350</f>
         <v>1406350</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I14" s="5">
         <f>230310</f>
         <v>230310</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6">
-        <f t="shared" ref="B14:I14" si="1">((B11)+(B12))+(B13)</f>
+      <c r="B15" s="6">
+        <f t="shared" ref="B15:I15" si="1">((B12)+(B13))+(B14)</f>
         <v>7181228.5</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <f t="shared" si="1"/>
         <v>4473059</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
         <f t="shared" si="1"/>
         <v>4661340</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E15" s="6">
         <f t="shared" si="1"/>
         <v>11136093.5</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F15" s="6">
         <f t="shared" si="1"/>
         <v>13066381.5</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>17222324</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>11476240</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="6">
         <f t="shared" si="1"/>
         <v>9676020</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B16" s="5">
         <f>841340</f>
         <v>841340</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C16" s="5">
         <f>1299300</f>
         <v>1299300</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D16" s="5">
         <f>335150</f>
         <v>335150</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E16" s="5">
         <f>1006060</f>
         <v>1006060</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <f>1315960</f>
         <v>1315960</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G16" s="5">
         <f>1205400</f>
         <v>1205400</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H16" s="5">
         <f>650950</f>
         <v>650950</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I16" s="5">
         <f>700840</f>
         <v>700840</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B17" s="5">
         <f>1750170</f>
         <v>1750170</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C17" s="5">
         <f>1263570</f>
         <v>1263570</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D17" s="5">
         <f>1211540</f>
         <v>1211540</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="5">
         <f>3820410</f>
         <v>3820410</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <f>2869470</f>
         <v>2869470</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G17" s="5">
         <f>4043842</f>
         <v>4043842</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <f>2687130</f>
         <v>2687130</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <f>2318160</f>
         <v>2318160</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B18" s="5">
         <f>58000</f>
         <v>58000</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C18" s="5">
         <f>205000</f>
         <v>205000</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5">
+      <c r="D18" s="4"/>
+      <c r="E18" s="5">
         <f>193500</f>
         <v>193500</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F18" s="5">
         <f>221250</f>
         <v>221250</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G18" s="5">
         <f>73000</f>
         <v>73000</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5">
+      <c r="H18" s="4"/>
+      <c r="I18" s="5">
         <f>232000</f>
         <v>232000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B19" s="5">
         <f>134400</f>
         <v>134400</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <f>92000</f>
         <v>92000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <f>98600</f>
         <v>98600</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <f>150800</f>
         <v>150800</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <f>251200</f>
         <v>251200</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="5">
         <f>275400</f>
         <v>275400</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="5">
         <f>136800</f>
         <v>136800</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="5">
         <f>184800</f>
         <v>184800</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="6">
-        <f t="shared" ref="B19:I19" si="2">((((((B7)+(B10))+(B14))+(B15))+(B16))+(B17))+(B18)</f>
+      <c r="B20" s="6">
+        <f t="shared" ref="B20:I20" si="2">((((((B8)+(B11))+(B15))+(B16))+(B17))+(B18))+(B19)</f>
         <v>28644988.5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <f t="shared" si="2"/>
         <v>29236605.189999998</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D20" s="6">
         <f t="shared" si="2"/>
         <v>15572506</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <f t="shared" si="2"/>
         <v>37788648.5</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="2"/>
         <v>49147511</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <f t="shared" si="2"/>
         <v>57399321</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="6">
         <f t="shared" si="2"/>
         <v>35281270</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="6">
         <f t="shared" si="2"/>
         <v>35755320</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1462,7 +1449,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1475,1268 +1462,1268 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B24" s="5">
         <f>1903399</f>
         <v>1903399</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <f>2009574</f>
         <v>2009574</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D24" s="5">
         <f>1366063</f>
         <v>1366063</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E24" s="5">
         <f>2616495</f>
         <v>2616495</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F24" s="5">
         <f>4049481</f>
         <v>4049481</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G24" s="5">
         <f>5063379</f>
         <v>5063379</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H24" s="5">
         <f>2829655</f>
         <v>2829655</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I24" s="5">
         <f>2559356</f>
         <v>2559356</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5">
         <f>3237851</f>
         <v>3237851</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <f>2129612</f>
         <v>2129612</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D25" s="5">
         <f>1665904</f>
         <v>1665904</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E25" s="5">
         <f>3303820</f>
         <v>3303820</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="5">
         <f>5156754</f>
         <v>5156754</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G25" s="5">
         <f>4634119</f>
         <v>4634119</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H25" s="5">
         <f>3120564</f>
         <v>3120564</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I25" s="5">
         <f>4113591</f>
         <v>4113591</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B26" s="5">
         <f>575191</f>
         <v>575191</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26" s="5">
         <f>277443</f>
         <v>277443</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D26" s="5">
         <f>270174</f>
         <v>270174</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E26" s="5">
         <f>741487</f>
         <v>741487</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F26" s="5">
         <f>518282</f>
         <v>518282</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G26" s="5">
         <f>1036238</f>
         <v>1036238</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H26" s="5">
         <f>381384</f>
         <v>381384</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I26" s="5">
         <f>673301</f>
         <v>673301</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B27" s="5">
         <f>735</f>
         <v>735</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C27" s="5">
         <f>25712</f>
         <v>25712</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D27" s="5">
         <f>112301</f>
         <v>112301</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E27" s="5">
         <f>334783</f>
         <v>334783</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F27" s="5">
         <f>888315</f>
         <v>888315</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G27" s="5">
         <f>1206969</f>
         <v>1206969</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H27" s="5">
         <f>954170</f>
         <v>954170</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I27" s="5">
         <f>483172</f>
         <v>483172</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="6">
-        <f t="shared" ref="B27:I27" si="3">((((B22)+(B23))+(B24))+(B25))+(B26)</f>
+      <c r="B28" s="6">
+        <f t="shared" ref="B28:I28" si="3">((((B23)+(B24))+(B25))+(B26))+(B27)</f>
         <v>5717176</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C28" s="6">
         <f t="shared" si="3"/>
         <v>4442341</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D28" s="6">
         <f t="shared" si="3"/>
         <v>3414442</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <f t="shared" si="3"/>
         <v>6996585</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F28" s="6">
         <f t="shared" si="3"/>
         <v>10612832</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G28" s="6">
         <f t="shared" si="3"/>
         <v>11940705</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H28" s="6">
         <f t="shared" si="3"/>
         <v>7285773</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="6">
         <f t="shared" si="3"/>
         <v>7829420</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B30" s="5">
         <f>744229</f>
         <v>744229</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C30" s="5">
         <f>503964</f>
         <v>503964</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D30" s="5">
         <f>455381</f>
         <v>455381</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E30" s="5">
         <f>840681</f>
         <v>840681</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F30" s="5">
         <f>1109947</f>
         <v>1109947</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G30" s="5">
         <f>1094969</f>
         <v>1094969</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H30" s="5">
         <f>748719</f>
         <v>748719</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I30" s="5">
         <f>770802</f>
         <v>770802</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B31" s="5">
         <f>318587</f>
         <v>318587</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C31" s="5">
         <f>365883</f>
         <v>365883</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D31" s="5">
         <f>360899</f>
         <v>360899</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E31" s="5">
         <f>436069</f>
         <v>436069</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F31" s="5">
         <f>442537</f>
         <v>442537</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G31" s="5">
         <f>502091</f>
         <v>502091</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H31" s="5">
         <f>453900</f>
         <v>453900</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I31" s="5">
         <f>430281</f>
         <v>430281</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B32" s="5">
         <f>803871</f>
         <v>803871</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C32" s="5">
         <f>467542</f>
         <v>467542</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D32" s="5">
         <f>543838</f>
         <v>543838</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E32" s="5">
         <f>647568</f>
         <v>647568</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F32" s="5">
         <f>675759</f>
         <v>675759</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G32" s="5">
         <f>624452</f>
         <v>624452</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H32" s="5">
         <f>426291</f>
         <v>426291</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I32" s="5">
         <f>462461</f>
         <v>462461</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B33" s="5">
         <f>121953</f>
         <v>121953</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C33" s="5">
         <f>121536</f>
         <v>121536</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D33" s="5">
         <f>112449</f>
         <v>112449</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="5">
         <f>161958</f>
         <v>161958</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F33" s="5">
         <f>195181</f>
         <v>195181</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G33" s="5">
         <f>197699</f>
         <v>197699</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H33" s="5">
         <f>152502</f>
         <v>152502</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I33" s="5">
         <f>168128</f>
         <v>168128</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B34" s="5">
         <f>973521</f>
         <v>973521</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C34" s="5">
         <f>1036707</f>
         <v>1036707</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D34" s="5">
         <f>763751</f>
         <v>763751</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <f>2042762</f>
         <v>2042762</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F34" s="5">
         <f>2352180</f>
         <v>2352180</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G34" s="5">
         <f>2440085</f>
         <v>2440085</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H34" s="5">
         <f>1928059</f>
         <v>1928059</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I34" s="5">
         <f>1703777</f>
         <v>1703777</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="6">
-        <f t="shared" ref="B34:I34" si="4">(((((B28)+(B29))+(B30))+(B31))+(B32))+(B33)</f>
+      <c r="B35" s="6">
+        <f t="shared" ref="B35:I35" si="4">(((((B29)+(B30))+(B31))+(B32))+(B33))+(B34)</f>
         <v>2962161</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C35" s="6">
         <f t="shared" si="4"/>
         <v>2495632</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D35" s="6">
         <f t="shared" si="4"/>
         <v>2236318</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E35" s="6">
         <f t="shared" si="4"/>
         <v>4129038</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F35" s="6">
         <f t="shared" si="4"/>
         <v>4775604</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G35" s="6">
         <f t="shared" si="4"/>
         <v>4859296</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H35" s="6">
         <f t="shared" si="4"/>
         <v>3709471</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I35" s="6">
         <f t="shared" si="4"/>
         <v>3535449</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B36" s="5">
         <f>856841</f>
         <v>856841</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C36" s="5">
         <f>211773</f>
         <v>211773</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D36" s="5">
         <f>247483</f>
         <v>247483</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E36" s="5">
         <f>937518</f>
         <v>937518</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F36" s="5">
         <f>1264900</f>
         <v>1264900</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G36" s="5">
         <f>1349420</f>
         <v>1349420</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H36" s="5">
         <f>515152</f>
         <v>515152</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I36" s="5">
         <f>638306</f>
         <v>638306</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B37" s="5">
         <f>1201244</f>
         <v>1201244</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C37" s="5">
         <f>962151</f>
         <v>962151</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D37" s="5">
         <f>651942</f>
         <v>651942</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E37" s="5">
         <f>1554827</f>
         <v>1554827</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F37" s="5">
         <f>2630783</f>
         <v>2630783</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G37" s="5">
         <f>2546192</f>
         <v>2546192</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H37" s="5">
         <f>2170088</f>
         <v>2170088</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I37" s="5">
         <f>1644017</f>
         <v>1644017</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B38" s="5">
         <f>787408</f>
         <v>787408</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C38" s="5">
         <f>532633</f>
         <v>532633</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D38" s="5">
         <f>416632</f>
         <v>416632</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E38" s="5">
         <f>970535</f>
         <v>970535</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F38" s="5">
         <f>1406050</f>
         <v>1406050</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G38" s="5">
         <f>1292336</f>
         <v>1292336</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H38" s="5">
         <f>1056654</f>
         <v>1056654</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I38" s="5">
         <f>1116001</f>
         <v>1116001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B39" s="5">
         <f>641829</f>
         <v>641829</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C39" s="5">
         <f>479875</f>
         <v>479875</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D39" s="5">
         <f>205978</f>
         <v>205978</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E39" s="5">
         <f>785827</f>
         <v>785827</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F39" s="5">
         <f>846163</f>
         <v>846163</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G39" s="5">
         <f>585924</f>
         <v>585924</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H39" s="5">
         <f>409496</f>
         <v>409496</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I39" s="5">
         <f>396814</f>
         <v>396814</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B40" s="5">
         <f>199218.6</f>
         <v>199218.6</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C40" s="5">
         <f>639884</f>
         <v>639884</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D40" s="5">
         <f>527131</f>
         <v>527131</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E40" s="5">
         <f>599790.8</f>
         <v>599790.80000000005</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F40" s="5">
         <f>1450836</f>
         <v>1450836</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G40" s="5">
         <f>1275833</f>
         <v>1275833</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H40" s="5">
         <f>667966</f>
         <v>667966</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I40" s="5">
         <f>408318</f>
         <v>408318</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B41" s="5">
         <f>570124</f>
         <v>570124</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C41" s="5">
         <f>38081</f>
         <v>38081</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D41" s="5">
         <f>475318</f>
         <v>475318</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E41" s="5">
         <f>1084212</f>
         <v>1084212</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F41" s="5">
         <f>648879</f>
         <v>648879</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G41" s="5">
         <f>535039</f>
         <v>535039</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H41" s="5">
         <f>532241</f>
         <v>532241</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I41" s="5">
         <f>480005</f>
         <v>480005</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="6">
-        <f t="shared" ref="B41:I41" si="5">((((((((B21)+(B27))+(B34))+(B35))+(B36))+(B37))+(B38))+(B39))+(B40)</f>
+      <c r="B42" s="6">
+        <f t="shared" ref="B42:I42" si="5">((((((((B22)+(B28))+(B35))+(B36))+(B37))+(B38))+(B39))+(B40))+(B41)</f>
         <v>12936001.6</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C42" s="6">
         <f t="shared" si="5"/>
         <v>9802370</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D42" s="6">
         <f t="shared" si="5"/>
         <v>8175244</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E42" s="6">
         <f t="shared" si="5"/>
         <v>17058332.800000001</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F42" s="6">
         <f t="shared" si="5"/>
         <v>23636047</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G42" s="6">
         <f t="shared" si="5"/>
         <v>24384745</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H42" s="6">
         <f t="shared" si="5"/>
         <v>16346841</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I42" s="6">
         <f t="shared" si="5"/>
         <v>16048330</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-    </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B44" s="5">
         <f>4194360</f>
         <v>4194360</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C44" s="5">
         <f>4170644</f>
         <v>4170644</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D44" s="5">
         <f>4461715</f>
         <v>4461715</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E44" s="5">
         <f>4527448</f>
         <v>4527448</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F44" s="5">
         <f>4684031</f>
         <v>4684031</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G44" s="5">
         <f>4827864</f>
         <v>4827864</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H44" s="5">
         <f>4858181</f>
         <v>4858181</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I44" s="5">
         <f>4811631</f>
         <v>4811631</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B45" s="5">
         <f>647100</f>
         <v>647100</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C45" s="5">
         <f>323800</f>
         <v>323800</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D45" s="5">
         <f>323900</f>
         <v>323900</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E45" s="5">
         <f>676040</f>
         <v>676040</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F45" s="5">
         <f>1792460</f>
         <v>1792460</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G45" s="5">
         <f>1049590</f>
         <v>1049590</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H45" s="5">
         <f>800440</f>
         <v>800440</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I45" s="5">
         <f>486360</f>
         <v>486360</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B46" s="5">
         <f>621138</f>
         <v>621138</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C46" s="5">
         <f>513707</f>
         <v>513707</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D46" s="5">
         <f>425139</f>
         <v>425139</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="5">
         <f>941316</f>
         <v>941316</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F46" s="5">
         <f>1218563</f>
         <v>1218563</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G46" s="5">
         <f>1068904</f>
         <v>1068904</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H46" s="5">
         <f>720988</f>
         <v>720988</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I46" s="5">
         <f>814738</f>
         <v>814738</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="6">
-        <f t="shared" ref="B46:I46" si="6">(((B42)+(B43))+(B44))+(B45)</f>
+      <c r="B47" s="6">
+        <f t="shared" ref="B47:I47" si="6">(((B43)+(B44))+(B45))+(B46)</f>
         <v>5462598</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C47" s="6">
         <f t="shared" si="6"/>
         <v>5008151</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D47" s="6">
         <f t="shared" si="6"/>
         <v>5210754</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E47" s="6">
         <f t="shared" si="6"/>
         <v>6144804</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F47" s="6">
         <f t="shared" si="6"/>
         <v>7695054</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G47" s="6">
         <f t="shared" si="6"/>
         <v>6946358</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H47" s="6">
         <f t="shared" si="6"/>
         <v>6379609</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I47" s="6">
         <f t="shared" si="6"/>
         <v>6112729</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B49" s="5">
         <f>1320301</f>
         <v>1320301</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C49" s="5">
         <f>1450291</f>
         <v>1450291</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D49" s="5">
         <f>1400817</f>
         <v>1400817</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E49" s="5">
         <f>1488658</f>
         <v>1488658</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F49" s="5">
         <f>1504068</f>
         <v>1504068</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G49" s="5">
         <f>1507828</f>
         <v>1507828</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H49" s="5">
         <f>1519158</f>
         <v>1519158</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I49" s="5">
         <f>1508278</f>
         <v>1508278</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B50" s="5">
         <f>993943</f>
         <v>993943</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C50" s="5">
         <f>975246</f>
         <v>975246</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D50" s="5">
         <f>1014177</f>
         <v>1014177</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E50" s="5">
         <f>1801989</f>
         <v>1801989</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F50" s="5">
         <f>2316593</f>
         <v>2316593</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G50" s="5">
         <f>2418386.79</f>
         <v>2418386.79</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H50" s="5">
         <f>2330177</f>
         <v>2330177</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I50" s="5">
         <f>2851817</f>
         <v>2851817</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B51" s="5">
         <f>1287469</f>
         <v>1287469</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C51" s="5">
         <f>758671</f>
         <v>758671</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D51" s="5">
         <f>784861</f>
         <v>784861</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E51" s="5">
         <f>1436453</f>
         <v>1436453</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F51" s="5">
         <f>2279118</f>
         <v>2279118</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G51" s="5">
         <f>1854814</f>
         <v>1854814</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H51" s="5">
         <f>1398929</f>
         <v>1398929</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I51" s="5">
         <f>1225202</f>
         <v>1225202</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B52" s="5">
         <f>230081</f>
         <v>230081</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C52" s="5">
         <f>153937</f>
         <v>153937</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D52" s="5">
         <f>165022</f>
         <v>165022</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E52" s="5">
         <f>204734</f>
         <v>204734</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F52" s="5">
         <f>178400</f>
         <v>178400</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G52" s="5">
         <f>362028</f>
         <v>362028</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H52" s="5">
         <f>281359</f>
         <v>281359</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I52" s="5">
         <f>119429</f>
         <v>119429</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B53" s="5">
         <f>44568</f>
         <v>44568</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C53" s="5">
         <f>73362</f>
         <v>73362</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D53" s="5">
         <f>67309</f>
         <v>67309</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E53" s="5">
         <f>65862</f>
         <v>65862</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F53" s="5">
         <f>188020</f>
         <v>188020</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G53" s="5">
         <f>171625</f>
         <v>171625</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H53" s="5">
         <f>92482</f>
         <v>92482</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I53" s="5">
         <f>115085</f>
         <v>115085</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B54" s="5">
         <f>29388</f>
         <v>29388</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C54" s="5">
         <f>495970</f>
         <v>495970</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D54" s="5">
         <f>101230</f>
         <v>101230</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E54" s="5">
         <f>138430</f>
         <v>138430</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F54" s="5">
         <f>229645</f>
         <v>229645</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G54" s="5">
         <f>159715</f>
         <v>159715</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H54" s="5">
         <f>583115</f>
         <v>583115</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I54" s="5">
         <f>429480</f>
         <v>429480</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B55" s="5">
         <f>170000</f>
         <v>170000</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C55" s="5">
         <f>107300</f>
         <v>107300</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D55" s="5">
         <f>92700</f>
         <v>92700</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E55" s="5">
         <f>312500</f>
         <v>312500</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F55" s="5">
         <f>369600</f>
         <v>369600</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G55" s="5">
         <f>362650</f>
         <v>362650</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H55" s="5">
         <f>264456</f>
         <v>264456</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I55" s="5">
         <f>231100</f>
         <v>231100</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="5">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5">
         <f>8000</f>
         <v>8000</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5">
+      <c r="D56" s="4"/>
+      <c r="E56" s="5">
         <f>36900</f>
         <v>36900</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F56" s="5">
         <f>818700</f>
         <v>818700</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G56" s="5">
         <f>19600</f>
         <v>19600</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="6">
-        <f t="shared" ref="B56:I56" si="7">((((((((B47)+(B48))+(B49))+(B50))+(B51))+(B52))+(B53))+(B54))+(B55)</f>
+      <c r="B57" s="6">
+        <f t="shared" ref="B57:I57" si="7">((((((((B48)+(B49))+(B50))+(B51))+(B52))+(B53))+(B54))+(B55))+(B56)</f>
         <v>4075750</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C57" s="6">
         <f t="shared" si="7"/>
         <v>4022777</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D57" s="6">
         <f t="shared" si="7"/>
         <v>3626116</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E57" s="6">
         <f t="shared" si="7"/>
         <v>5485526</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F57" s="6">
         <f t="shared" si="7"/>
         <v>7884144</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G57" s="6">
         <f t="shared" si="7"/>
         <v>6856646.79</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H57" s="6">
         <f t="shared" si="7"/>
         <v>6469676</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I57" s="6">
         <f t="shared" si="7"/>
         <v>6480391</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="6">
-        <f t="shared" ref="B57:I57" si="8">((B41)+(B46))+(B56)</f>
+      <c r="B58" s="6">
+        <f t="shared" ref="B58:I58" si="8">((B42)+(B47))+(B57)</f>
         <v>22474349.600000001</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C58" s="6">
         <f t="shared" si="8"/>
         <v>18833298</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D58" s="6">
         <f t="shared" si="8"/>
         <v>17012114</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E58" s="6">
         <f t="shared" si="8"/>
         <v>28688662.800000001</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F58" s="6">
         <f t="shared" si="8"/>
         <v>39215245</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G58" s="6">
         <f t="shared" si="8"/>
         <v>38187749.789999999</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H58" s="6">
         <f t="shared" si="8"/>
         <v>29196126</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I58" s="6">
         <f t="shared" si="8"/>
         <v>28641450</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="6">
-        <f t="shared" ref="B58:I58" si="9">(B19)-(B57)</f>
+      <c r="B59" s="6">
+        <f t="shared" ref="B59:I59" si="9">(B20)-(B58)</f>
         <v>6170638.8999999985</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C59" s="6">
         <f t="shared" si="9"/>
         <v>10403307.189999998</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <f t="shared" si="9"/>
         <v>-1439608</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E59" s="6">
         <f t="shared" si="9"/>
         <v>9099985.6999999993</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F59" s="6">
         <f t="shared" si="9"/>
         <v>9932266</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G59" s="6">
         <f t="shared" si="9"/>
         <v>19211571.210000001</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H59" s="6">
         <f t="shared" si="9"/>
         <v>6085144</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I59" s="6">
         <f t="shared" si="9"/>
         <v>7113870</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-    </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -2749,168 +2736,168 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B62" s="5">
         <f>823300</f>
         <v>823300</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C62" s="5">
         <f>1534500</f>
         <v>1534500</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D62" s="5">
         <f>267000</f>
         <v>267000</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E62" s="5">
         <f>6692700</f>
         <v>6692700</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F62" s="5">
         <f>11074400</f>
         <v>11074400</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G62" s="5">
         <f>15184300</f>
         <v>15184300</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H62" s="5">
         <f>6712350</f>
         <v>6712350</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I62" s="5">
         <f>6438800</f>
         <v>6438800</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B63" s="5">
         <f>880357</f>
         <v>880357</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C63" s="5">
         <f>1065901</f>
         <v>1065901</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D63" s="5">
         <f>898000</f>
         <v>898000</v>
       </c>
-      <c r="E62" s="5">
+      <c r="E63" s="5">
         <f>1081061</f>
         <v>1081061</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F63" s="5">
         <f>1019407.5</f>
         <v>1019407.5</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G63" s="5">
         <f>912198</f>
         <v>912198</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H63" s="5">
         <f>1345467</f>
         <v>1345467</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I63" s="5">
         <f>872291</f>
         <v>872291</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="6">
-        <f t="shared" ref="B63:I63" si="10">((B60)+(B61))+(B62)</f>
+      <c r="B64" s="6">
+        <f t="shared" ref="B64:I64" si="10">((B61)+(B62))+(B63)</f>
         <v>1703657</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C64" s="6">
         <f t="shared" si="10"/>
         <v>2600401</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D64" s="6">
         <f t="shared" si="10"/>
         <v>1165000</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E64" s="6">
         <f t="shared" si="10"/>
         <v>7773761</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F64" s="6">
         <f t="shared" si="10"/>
         <v>12093807.5</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G64" s="6">
         <f t="shared" si="10"/>
         <v>16096498</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H64" s="6">
         <f t="shared" si="10"/>
         <v>8057817</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I64" s="6">
         <f t="shared" si="10"/>
         <v>7311091</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="6">
-        <f t="shared" ref="B64:I64" si="11">B63</f>
+      <c r="B65" s="6">
+        <f t="shared" ref="B65:I65" si="11">B64</f>
         <v>1703657</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C65" s="6">
         <f t="shared" si="11"/>
         <v>2600401</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D65" s="6">
         <f t="shared" si="11"/>
         <v>1165000</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E65" s="6">
         <f t="shared" si="11"/>
         <v>7773761</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F65" s="6">
         <f t="shared" si="11"/>
         <v>12093807.5</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G65" s="6">
         <f t="shared" si="11"/>
         <v>16096498</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H65" s="6">
         <f t="shared" si="11"/>
         <v>8057817</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I65" s="6">
         <f t="shared" si="11"/>
         <v>7311091</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-    </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -2923,7 +2910,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -2936,630 +2923,630 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B69" s="5">
         <f>655500</f>
         <v>655500</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C69" s="5">
         <f>662250</f>
         <v>662250</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D69" s="5">
         <f>678000</f>
         <v>678000</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E69" s="5">
         <f>672250</f>
         <v>672250</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F69" s="5">
         <f>674250</f>
         <v>674250</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G69" s="5">
         <f>657800</f>
         <v>657800</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H69" s="5">
         <f>620000</f>
         <v>620000</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I69" s="5">
         <f>629600</f>
         <v>629600</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B70" s="5">
         <f>70000</f>
         <v>70000</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C70" s="5">
         <f>70000</f>
         <v>70000</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D70" s="5">
         <f>70000</f>
         <v>70000</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E70" s="5">
         <f>70000</f>
         <v>70000</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F70" s="5">
         <f>70000</f>
         <v>70000</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G70" s="5">
         <f>53667</f>
         <v>53667</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H70" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I70" s="5">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B71" s="5">
         <f>1015078</f>
         <v>1015078</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C71" s="5">
         <f>940218</f>
         <v>940218</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D71" s="5">
         <f>975148</f>
         <v>975148</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E71" s="5">
         <f>1024165</f>
         <v>1024165</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F71" s="5">
         <f>1020398</f>
         <v>1020398</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G71" s="5">
         <f>1005648</f>
         <v>1005648</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H71" s="5">
         <f>1225498</f>
         <v>1225498</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I71" s="5">
         <f>1254148</f>
         <v>1254148</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B72" s="5">
         <f>312556</f>
         <v>312556</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C72" s="5">
         <f>304972</f>
         <v>304972</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D72" s="5">
         <f>376616</f>
         <v>376616</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E72" s="5">
         <f>330267</f>
         <v>330267</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F72" s="5">
         <f>340733</f>
         <v>340733</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G72" s="5">
         <f>317127</f>
         <v>317127</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H72" s="5">
         <f>340000</f>
         <v>340000</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I72" s="5">
         <f>510500</f>
         <v>510500</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="6">
-        <f t="shared" ref="B72:I72" si="12">((((B67)+(B68))+(B69))+(B70))+(B71)</f>
+      <c r="B73" s="6">
+        <f t="shared" ref="B73:I73" si="12">((((B68)+(B69))+(B70))+(B71))+(B72)</f>
         <v>2053134</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C73" s="6">
         <f t="shared" si="12"/>
         <v>1977440</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D73" s="6">
         <f t="shared" si="12"/>
         <v>2099764</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E73" s="6">
         <f t="shared" si="12"/>
         <v>2096682</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F73" s="6">
         <f t="shared" si="12"/>
         <v>2105381</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G73" s="6">
         <f t="shared" si="12"/>
         <v>2034242</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H73" s="6">
         <f t="shared" si="12"/>
         <v>2185498</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I73" s="6">
         <f t="shared" si="12"/>
         <v>2394248</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B74" s="5">
         <f>158733.25</f>
         <v>158733.25</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C74" s="5">
         <f>260523.25</f>
         <v>260523.25</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D74" s="5">
         <f>288973.25</f>
         <v>288973.25</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E74" s="5">
         <f>176693.25</f>
         <v>176693.25</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F74" s="5">
         <f>224513.25</f>
         <v>224513.25</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G74" s="5">
         <f>618740.25</f>
         <v>618740.25</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H74" s="5">
         <f>213969.25</f>
         <v>213969.25</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I74" s="5">
         <f>208569.25</f>
         <v>208569.25</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-    </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B76" s="5">
         <f>370313</f>
         <v>370313</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C76" s="5">
         <f>634553</f>
         <v>634553</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D76" s="5">
         <f>83549</f>
         <v>83549</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E76" s="5">
         <f>397574</f>
         <v>397574</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F76" s="5">
         <f>585683</f>
         <v>585683</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G76" s="5">
         <f>497048</f>
         <v>497048</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H76" s="5">
         <f>221802</f>
         <v>221802</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I76" s="5">
         <f>262285</f>
         <v>262285</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="6">
-        <f t="shared" ref="B76:I76" si="13">(B74)+(B75)</f>
+      <c r="B77" s="6">
+        <f t="shared" ref="B77:I77" si="13">(B75)+(B76)</f>
         <v>370313</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C77" s="6">
         <f t="shared" si="13"/>
         <v>634553</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D77" s="6">
         <f t="shared" si="13"/>
         <v>83549</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E77" s="6">
         <f t="shared" si="13"/>
         <v>397574</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F77" s="6">
         <f t="shared" si="13"/>
         <v>585683</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G77" s="6">
         <f t="shared" si="13"/>
         <v>497048</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H77" s="6">
         <f t="shared" si="13"/>
         <v>221802</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I77" s="6">
         <f t="shared" si="13"/>
         <v>262285</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="6">
-        <f t="shared" ref="B77:I77" si="14">(((B66)+(B72))+(B73))+(B76)</f>
+      <c r="B78" s="6">
+        <f t="shared" ref="B78:I78" si="14">(((B67)+(B73))+(B74))+(B77)</f>
         <v>2582180.25</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C78" s="6">
         <f t="shared" si="14"/>
         <v>2872516.25</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D78" s="6">
         <f t="shared" si="14"/>
         <v>2472286.25</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E78" s="6">
         <f t="shared" si="14"/>
         <v>2670949.25</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F78" s="6">
         <f t="shared" si="14"/>
         <v>2915577.25</v>
       </c>
-      <c r="G77" s="6">
+      <c r="G78" s="6">
         <f t="shared" si="14"/>
         <v>3150030.25</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H78" s="6">
         <f t="shared" si="14"/>
         <v>2621269.25</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I78" s="6">
         <f t="shared" si="14"/>
         <v>2865102.25</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-    </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B80" s="5">
         <f>302500</f>
         <v>302500</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C80" s="5">
         <f>302500</f>
         <v>302500</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D80" s="5">
         <f>302500</f>
         <v>302500</v>
       </c>
-      <c r="E79" s="5">
+      <c r="E80" s="5">
         <f>302500</f>
         <v>302500</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F80" s="5">
         <f>302500</f>
         <v>302500</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G80" s="5">
         <f>316800</f>
         <v>316800</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H80" s="5">
         <f>323800</f>
         <v>323800</v>
       </c>
-      <c r="I79" s="5">
+      <c r="I80" s="5">
         <f>323800</f>
         <v>323800</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B81" s="5">
         <f>1460</f>
         <v>1460</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C81" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D81" s="5">
         <f>1340</f>
         <v>1340</v>
       </c>
-      <c r="E80" s="5">
+      <c r="E81" s="5">
         <f>120</f>
         <v>120</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F81" s="5">
         <f>280</f>
         <v>280</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G81" s="5">
         <f>1080</f>
         <v>1080</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H81" s="5">
         <f>90</f>
         <v>90</v>
       </c>
-      <c r="I80" s="5">
+      <c r="I81" s="5">
         <f>60</f>
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="3" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B81" s="6">
-        <f t="shared" ref="B81:I81" si="15">((B78)+(B79))+(B80)</f>
+      <c r="B82" s="6">
+        <f t="shared" ref="B82:I82" si="15">((B79)+(B80))+(B81)</f>
         <v>303960</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C82" s="6">
         <f t="shared" si="15"/>
         <v>302500</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D82" s="6">
         <f t="shared" si="15"/>
         <v>303840</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E82" s="6">
         <f t="shared" si="15"/>
         <v>302620</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <f t="shared" si="15"/>
         <v>302780</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <f t="shared" si="15"/>
         <v>317880</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H82" s="6">
         <f t="shared" si="15"/>
         <v>323890</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I82" s="6">
         <f t="shared" si="15"/>
         <v>323860</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-    </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B84" s="5">
         <f>182241</f>
         <v>182241</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C84" s="5">
         <f>197115</f>
         <v>197115</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D84" s="5">
         <f>223593</f>
         <v>223593</v>
       </c>
-      <c r="E83" s="5">
+      <c r="E84" s="5">
         <f>171635</f>
         <v>171635</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F84" s="5">
         <f>136735</f>
         <v>136735</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G84" s="5">
         <f>136624</f>
         <v>136624</v>
       </c>
-      <c r="H83" s="5">
+      <c r="H84" s="5">
         <f>160892</f>
         <v>160892</v>
       </c>
-      <c r="I83" s="5">
+      <c r="I84" s="5">
         <f>224127</f>
         <v>224127</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="5">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="5">
         <f>129290</f>
         <v>129290</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B86" s="5">
         <f>5580</f>
         <v>5580</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C86" s="5">
         <f>5580</f>
         <v>5580</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D86" s="5">
         <f>7740</f>
         <v>7740</v>
       </c>
-      <c r="E85" s="5">
+      <c r="E86" s="5">
         <f>6660</f>
         <v>6660</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F86" s="5">
         <f>5580</f>
         <v>5580</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G86" s="5">
         <f>6480</f>
         <v>6480</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H86" s="5">
         <f>6800</f>
         <v>6800</v>
       </c>
-      <c r="I85" s="5">
+      <c r="I86" s="5">
         <f>5600</f>
         <v>5600</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B86" s="6">
-        <f t="shared" ref="B86:I86" si="16">(((B82)+(B83))+(B84))+(B85)</f>
+      <c r="B87" s="6">
+        <f t="shared" ref="B87:I87" si="16">(((B83)+(B84))+(B85))+(B86)</f>
         <v>187821</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C87" s="6">
         <f t="shared" si="16"/>
         <v>202695</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D87" s="6">
         <f t="shared" si="16"/>
         <v>231333</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E87" s="6">
         <f t="shared" si="16"/>
         <v>178295</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F87" s="6">
         <f t="shared" si="16"/>
         <v>142315</v>
       </c>
-      <c r="G86" s="6">
+      <c r="G87" s="6">
         <f t="shared" si="16"/>
         <v>143104</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H87" s="6">
         <f t="shared" si="16"/>
         <v>167692</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I87" s="6">
         <f t="shared" si="16"/>
         <v>359017</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-    </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -3568,43 +3555,19 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="5">
-        <f>32000</f>
-        <v>32000</v>
-      </c>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="5">
-        <f>32000</f>
-        <v>32000</v>
-      </c>
-      <c r="C89" s="5">
-        <f>32000</f>
-        <v>32000</v>
-      </c>
-      <c r="D89" s="5">
-        <f>32000</f>
-        <v>32000</v>
-      </c>
-      <c r="E89" s="5">
-        <f>32000</f>
-        <v>32000</v>
-      </c>
-      <c r="F89" s="5">
-        <f>32000</f>
-        <v>32000</v>
-      </c>
-      <c r="G89" s="5">
-        <f>32000</f>
-        <v>32000</v>
-      </c>
-      <c r="H89" s="5">
-        <f>32000</f>
-        <v>32000</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="5">
         <f>32000</f>
         <v>32000</v>
@@ -3612,1046 +3575,1070 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="5">
+        <f>32000</f>
+        <v>32000</v>
+      </c>
+      <c r="C90" s="5">
+        <f>32000</f>
+        <v>32000</v>
+      </c>
+      <c r="D90" s="5">
+        <f>32000</f>
+        <v>32000</v>
+      </c>
+      <c r="E90" s="5">
+        <f>32000</f>
+        <v>32000</v>
+      </c>
+      <c r="F90" s="5">
+        <f>32000</f>
+        <v>32000</v>
+      </c>
+      <c r="G90" s="5">
+        <f>32000</f>
+        <v>32000</v>
+      </c>
+      <c r="H90" s="5">
+        <f>32000</f>
+        <v>32000</v>
+      </c>
+      <c r="I90" s="5">
+        <f>32000</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B90" s="5">
+      <c r="B91" s="5">
         <f>554250</f>
         <v>554250</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C91" s="5">
         <f>514012.5</f>
         <v>514012.5</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D91" s="5">
         <f>478750</f>
         <v>478750</v>
       </c>
-      <c r="E90" s="5">
+      <c r="E91" s="5">
         <f>674012.5</f>
         <v>674012.5</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F91" s="5">
         <f>524012.5</f>
         <v>524012.5</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G91" s="5">
         <f>487400</f>
         <v>487400</v>
       </c>
-      <c r="H90" s="5">
+      <c r="H91" s="5">
         <f>481600</f>
         <v>481600</v>
       </c>
-      <c r="I90" s="5">
+      <c r="I91" s="5">
         <f>484012.5</f>
         <v>484012.5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="5">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="5">
         <f>30770</f>
         <v>30770</v>
       </c>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B93" s="5">
         <f>541952.93</f>
         <v>541952.93000000005</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C93" s="5">
         <f>1139793.44</f>
         <v>1139793.44</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D93" s="5">
         <f>394494.94</f>
         <v>394494.94</v>
       </c>
-      <c r="E92" s="5">
+      <c r="E93" s="5">
         <f>60715.94</f>
         <v>60715.94</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F93" s="5">
         <f>140285.89</f>
         <v>140285.89000000001</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G93" s="5">
         <f>273210</f>
         <v>273210</v>
       </c>
-      <c r="H92" s="5">
+      <c r="H93" s="5">
         <f>413917.33</f>
         <v>413917.33</v>
       </c>
-      <c r="I92" s="5">
+      <c r="I93" s="5">
         <f>51959</f>
         <v>51959</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B93" s="6">
-        <f t="shared" ref="B93:I93" si="17">(((((B87)+(B88))+(B89))+(B90))+(B91))+(B92)</f>
+      <c r="B94" s="6">
+        <f t="shared" ref="B94:I94" si="17">(((((B88)+(B89))+(B90))+(B91))+(B92))+(B93)</f>
         <v>1128202.9300000002</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C94" s="6">
         <f t="shared" si="17"/>
         <v>1685805.94</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D94" s="6">
         <f t="shared" si="17"/>
         <v>905244.94</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E94" s="6">
         <f t="shared" si="17"/>
         <v>766728.44</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F94" s="6">
         <f t="shared" si="17"/>
         <v>696298.39</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G94" s="6">
         <f t="shared" si="17"/>
         <v>792610</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H94" s="6">
         <f t="shared" si="17"/>
         <v>958287.33000000007</v>
       </c>
-      <c r="I93" s="6">
+      <c r="I94" s="6">
         <f t="shared" si="17"/>
         <v>599971.5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-    </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B96" s="5">
         <f>35534</f>
         <v>35534</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C96" s="5">
         <f>24170</f>
         <v>24170</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D96" s="5">
         <f>24167</f>
         <v>24167</v>
       </c>
-      <c r="E95" s="5">
+      <c r="E96" s="5">
         <f>23817</f>
         <v>23817</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F96" s="5">
         <f>10372</f>
         <v>10372</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G96" s="5">
         <f>24905</f>
         <v>24905</v>
       </c>
-      <c r="H95" s="5">
+      <c r="H96" s="5">
         <f>24905</f>
         <v>24905</v>
       </c>
-      <c r="I95" s="5">
+      <c r="I96" s="5">
         <f>27608</f>
         <v>27608</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B97" s="5">
         <f>99226</f>
         <v>99226</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C97" s="5">
         <f>57179</f>
         <v>57179</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D97" s="5">
         <f>89000</f>
         <v>89000</v>
       </c>
-      <c r="E96" s="5">
+      <c r="E97" s="5">
         <f>106018</f>
         <v>106018</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F97" s="5">
         <f>72973</f>
         <v>72973</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G97" s="5">
         <f>70307.21</f>
         <v>70307.210000000006</v>
       </c>
-      <c r="H96" s="5">
+      <c r="H97" s="5">
         <f>60135</f>
         <v>60135</v>
       </c>
-      <c r="I96" s="5">
+      <c r="I97" s="5">
         <f>88468</f>
         <v>88468</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B98" s="5">
         <f>1210</f>
         <v>1210</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C98" s="5">
         <f>790</f>
         <v>790</v>
       </c>
-      <c r="D97" s="5">
+      <c r="D98" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E97" s="5">
+      <c r="E98" s="5">
         <f>390</f>
         <v>390</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F98" s="5">
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G98" s="5">
         <f>3210</f>
         <v>3210</v>
       </c>
-      <c r="H97" s="5">
+      <c r="H98" s="5">
         <f>1999</f>
         <v>1999</v>
       </c>
-      <c r="I97" s="5">
+      <c r="I98" s="5">
         <f>3190</f>
         <v>3190</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B99" s="5">
         <f>5070</f>
         <v>5070</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C99" s="5">
         <f>5220</f>
         <v>5220</v>
       </c>
-      <c r="D98" s="5">
+      <c r="D99" s="5">
         <f>5130</f>
         <v>5130</v>
       </c>
-      <c r="E98" s="5">
+      <c r="E99" s="5">
         <f>5090</f>
         <v>5090</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F99" s="5">
         <f>5080</f>
         <v>5080</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G99" s="5">
         <f>5060</f>
         <v>5060</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H99" s="5">
         <f>5420</f>
         <v>5420</v>
       </c>
-      <c r="I98" s="5">
+      <c r="I99" s="5">
         <f>6430</f>
         <v>6430</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B99" s="6">
-        <f t="shared" ref="B99:I99" si="18">((((B94)+(B95))+(B96))+(B97))+(B98)</f>
+      <c r="B100" s="6">
+        <f t="shared" ref="B100:I100" si="18">((((B95)+(B96))+(B97))+(B98))+(B99)</f>
         <v>141040</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C100" s="6">
         <f t="shared" si="18"/>
         <v>87359</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D100" s="6">
         <f t="shared" si="18"/>
         <v>118297</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E100" s="6">
         <f t="shared" si="18"/>
         <v>135315</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F100" s="6">
         <f t="shared" si="18"/>
         <v>88725</v>
       </c>
-      <c r="G99" s="6">
+      <c r="G100" s="6">
         <f t="shared" si="18"/>
         <v>103482.21</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H100" s="6">
         <f t="shared" si="18"/>
         <v>92459</v>
       </c>
-      <c r="I99" s="6">
+      <c r="I100" s="6">
         <f t="shared" si="18"/>
         <v>125696</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-    </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B102" s="5">
         <f>28450</f>
         <v>28450</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C102" s="5">
         <f>60210</f>
         <v>60210</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D102" s="5">
         <f>22070</f>
         <v>22070</v>
       </c>
-      <c r="E101" s="5">
+      <c r="E102" s="5">
         <f>24850</f>
         <v>24850</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F102" s="5">
         <f>18250</f>
         <v>18250</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G102" s="5">
         <f>25600</f>
         <v>25600</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H102" s="5">
         <f>49875</f>
         <v>49875</v>
       </c>
-      <c r="I101" s="5">
+      <c r="I102" s="5">
         <f>23000</f>
         <v>23000</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B103" s="5">
         <f>6461</f>
         <v>6461</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C103" s="5">
         <f>4208</f>
         <v>4208</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D103" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E102" s="5">
+      <c r="E103" s="5">
         <f>1800</f>
         <v>1800</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F103" s="5">
         <f>197720</f>
         <v>197720</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G103" s="5">
         <f>23060</f>
         <v>23060</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H103" s="5">
         <f>19555</f>
         <v>19555</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I103" s="5">
         <f>18450</f>
         <v>18450</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B104" s="5">
         <f>119965</f>
         <v>119965</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C104" s="5">
         <f>31255</f>
         <v>31255</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D104" s="5">
         <f>48903</f>
         <v>48903</v>
       </c>
-      <c r="E103" s="5">
+      <c r="E104" s="5">
         <f>52098</f>
         <v>52098</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F104" s="5">
         <f>48843</f>
         <v>48843</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G104" s="5">
         <f>50217</f>
         <v>50217</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H104" s="5">
         <f>64315</f>
         <v>64315</v>
       </c>
-      <c r="I103" s="5">
+      <c r="I104" s="5">
         <f>65182</f>
         <v>65182</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B104" s="6">
-        <f t="shared" ref="B104:I104" si="19">(((B100)+(B101))+(B102))+(B103)</f>
+      <c r="B105" s="6">
+        <f t="shared" ref="B105:I105" si="19">(((B101)+(B102))+(B103))+(B104)</f>
         <v>154876</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C105" s="6">
         <f t="shared" si="19"/>
         <v>95673</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D105" s="6">
         <f t="shared" si="19"/>
         <v>70973</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E105" s="6">
         <f t="shared" si="19"/>
         <v>78748</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F105" s="6">
         <f t="shared" si="19"/>
         <v>264813</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G105" s="6">
         <f t="shared" si="19"/>
         <v>98877</v>
       </c>
-      <c r="H104" s="6">
+      <c r="H105" s="6">
         <f t="shared" si="19"/>
         <v>133745</v>
       </c>
-      <c r="I104" s="6">
+      <c r="I105" s="6">
         <f t="shared" si="19"/>
         <v>106632</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-    </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="5">
+      <c r="B107" s="5">
         <f>430181</f>
         <v>430181</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C107" s="5">
         <f>492677</f>
         <v>492677</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D107" s="5">
         <f>489239</f>
         <v>489239</v>
       </c>
-      <c r="E106" s="5">
+      <c r="E107" s="5">
         <f>511775</f>
         <v>511775</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F107" s="5">
         <f>456316</f>
         <v>456316</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G107" s="5">
         <f>476227</f>
         <v>476227</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H107" s="5">
         <f>466089</f>
         <v>466089</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I107" s="5">
         <f>423349</f>
         <v>423349</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B107" s="5">
+      <c r="B108" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C108" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D108" s="5">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="6">
-        <f t="shared" ref="B108:I108" si="20">((B105)+(B106))+(B107)</f>
+      <c r="B109" s="6">
+        <f t="shared" ref="B109:I109" si="20">((B106)+(B107))+(B108)</f>
         <v>430181</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C109" s="6">
         <f t="shared" si="20"/>
         <v>492677</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D109" s="6">
         <f t="shared" si="20"/>
         <v>489239</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E109" s="6">
         <f t="shared" si="20"/>
         <v>511775</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F109" s="6">
         <f t="shared" si="20"/>
         <v>456316</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G109" s="6">
         <f t="shared" si="20"/>
         <v>476227</v>
       </c>
-      <c r="H108" s="6">
+      <c r="H109" s="6">
         <f t="shared" si="20"/>
         <v>466089</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I109" s="6">
         <f t="shared" si="20"/>
         <v>423349</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-    </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="5">
+      <c r="B111" s="5">
         <f>46868</f>
         <v>46868</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C111" s="5">
         <f>45531</f>
         <v>45531</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D111" s="5">
         <f>50660</f>
         <v>50660</v>
       </c>
-      <c r="E110" s="5">
+      <c r="E111" s="5">
         <f>55323</f>
         <v>55323</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F111" s="5">
         <f>46171</f>
         <v>46171</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G111" s="5">
         <f>50218</f>
         <v>50218</v>
       </c>
-      <c r="H110" s="5">
+      <c r="H111" s="5">
         <f>42735</f>
         <v>42735</v>
       </c>
-      <c r="I110" s="5">
+      <c r="I111" s="5">
         <f>34833</f>
         <v>34833</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B112" s="5">
         <f>29740</f>
         <v>29740</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C112" s="5">
         <f>16185</f>
         <v>16185</v>
       </c>
-      <c r="D111" s="5">
+      <c r="D112" s="5">
         <f>33980</f>
         <v>33980</v>
       </c>
-      <c r="E111" s="5">
+      <c r="E112" s="5">
         <f>124330</f>
         <v>124330</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F112" s="5">
         <f>19560</f>
         <v>19560</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G112" s="5">
         <f>93290</f>
         <v>93290</v>
       </c>
-      <c r="H111" s="5">
+      <c r="H112" s="5">
         <f>9040</f>
         <v>9040</v>
       </c>
-      <c r="I111" s="5">
+      <c r="I112" s="5">
         <f>24178</f>
         <v>24178</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B112" s="6">
-        <f t="shared" ref="B112:I112" si="21">((B109)+(B110))+(B111)</f>
+      <c r="B113" s="6">
+        <f t="shared" ref="B113:I113" si="21">((B110)+(B111))+(B112)</f>
         <v>76608</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C113" s="6">
         <f t="shared" si="21"/>
         <v>61716</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D113" s="6">
         <f t="shared" si="21"/>
         <v>84640</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E113" s="6">
         <f t="shared" si="21"/>
         <v>179653</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F113" s="6">
         <f t="shared" si="21"/>
         <v>65731</v>
       </c>
-      <c r="G112" s="6">
+      <c r="G113" s="6">
         <f t="shared" si="21"/>
         <v>143508</v>
       </c>
-      <c r="H112" s="6">
+      <c r="H113" s="6">
         <f t="shared" si="21"/>
         <v>51775</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I113" s="6">
         <f t="shared" si="21"/>
         <v>59011</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-    </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B114" s="5">
+      <c r="B115" s="5">
         <f>200000</f>
         <v>200000</v>
       </c>
-      <c r="C114" s="5">
-        <f t="shared" ref="C114:I114" si="22">140000</f>
+      <c r="C115" s="5">
+        <f t="shared" ref="C115:I115" si="22">140000</f>
         <v>140000</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D115" s="5">
         <f t="shared" si="22"/>
         <v>140000</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E115" s="5">
         <f t="shared" si="22"/>
         <v>140000</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F115" s="5">
         <f t="shared" si="22"/>
         <v>140000</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G115" s="5">
         <f t="shared" si="22"/>
         <v>140000</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H115" s="5">
         <f t="shared" si="22"/>
         <v>140000</v>
       </c>
-      <c r="I114" s="5">
+      <c r="I115" s="5">
         <f t="shared" si="22"/>
         <v>140000</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B115" s="5">
+      <c r="B116" s="5">
         <f>185569.78</f>
         <v>185569.78</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C116" s="5">
         <f>336474.72</f>
         <v>336474.72</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D116" s="5">
         <f>238815.47</f>
         <v>238815.47</v>
       </c>
-      <c r="E115" s="5">
+      <c r="E116" s="5">
         <f>276270.01</f>
         <v>276270.01</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F116" s="5">
         <f>205454.54</f>
         <v>205454.54</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G116" s="5">
         <f>234066</f>
         <v>234066</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H116" s="5">
         <f>243541</f>
         <v>243541</v>
       </c>
-      <c r="I115" s="5">
+      <c r="I116" s="5">
         <f>333895</f>
         <v>333895</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="5">
+      <c r="B117" s="4"/>
+      <c r="C117" s="5">
         <f>15000</f>
         <v>15000</v>
       </c>
-      <c r="D116" s="4"/>
-      <c r="E116" s="5">
+      <c r="D117" s="4"/>
+      <c r="E117" s="5">
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="5">
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="5">
         <f>15000</f>
         <v>15000</v>
       </c>
-      <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B117" s="6">
-        <f t="shared" ref="B117:I117" si="23">(((B113)+(B114))+(B115))+(B116)</f>
+      <c r="B118" s="6">
+        <f t="shared" ref="B118:I118" si="23">(((B114)+(B115))+(B116))+(B117)</f>
         <v>385569.78</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C118" s="6">
         <f t="shared" si="23"/>
         <v>491474.72</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D118" s="6">
         <f t="shared" si="23"/>
         <v>378815.47</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E118" s="6">
         <f t="shared" si="23"/>
         <v>426270.01</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F118" s="6">
         <f t="shared" si="23"/>
         <v>345454.54000000004</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G118" s="6">
         <f t="shared" si="23"/>
         <v>374066</v>
       </c>
-      <c r="H117" s="6">
+      <c r="H118" s="6">
         <f t="shared" si="23"/>
         <v>398541</v>
       </c>
-      <c r="I117" s="6">
+      <c r="I118" s="6">
         <f t="shared" si="23"/>
         <v>473895</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-    </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B120" s="5">
         <f>12224</f>
         <v>12224</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C120" s="5">
         <f>8211</f>
         <v>8211</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D120" s="5">
         <f>25996.39</f>
         <v>25996.39</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E120" s="5">
         <f>18671</f>
         <v>18671</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F120" s="5">
         <f>5933</f>
         <v>5933</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G120" s="5">
         <f>6359</f>
         <v>6359</v>
       </c>
-      <c r="H119" s="5">
+      <c r="H120" s="5">
         <f>17818</f>
         <v>17818</v>
       </c>
-      <c r="I119" s="5">
+      <c r="I120" s="5">
         <f>10000</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B121" s="5">
         <f>23868</f>
         <v>23868</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C121" s="5">
         <f>27240</f>
         <v>27240</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D121" s="5">
         <f>30106</f>
         <v>30106</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E121" s="5">
         <f>28212</f>
         <v>28212</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F121" s="5">
         <f>22590</f>
         <v>22590</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G121" s="5">
         <f>23385</f>
         <v>23385</v>
       </c>
-      <c r="H120" s="5">
+      <c r="H121" s="5">
         <f>22170</f>
         <v>22170</v>
       </c>
-      <c r="I120" s="5">
+      <c r="I121" s="5">
         <f>20490</f>
         <v>20490</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B121" s="6">
-        <f t="shared" ref="B121:I121" si="24">((B118)+(B119))+(B120)</f>
+      <c r="B122" s="6">
+        <f t="shared" ref="B122:I122" si="24">((B119)+(B120))+(B121)</f>
         <v>36092</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C122" s="6">
         <f t="shared" si="24"/>
         <v>35451</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D122" s="6">
         <f t="shared" si="24"/>
         <v>56102.39</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E122" s="6">
         <f t="shared" si="24"/>
         <v>46883</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F122" s="6">
         <f t="shared" si="24"/>
         <v>28523</v>
       </c>
-      <c r="G121" s="6">
+      <c r="G122" s="6">
         <f t="shared" si="24"/>
         <v>29744</v>
       </c>
-      <c r="H121" s="6">
+      <c r="H122" s="6">
         <f t="shared" si="24"/>
         <v>39988</v>
       </c>
-      <c r="I121" s="6">
+      <c r="I122" s="6">
         <f t="shared" si="24"/>
         <v>30490</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B122" s="6">
-        <f t="shared" ref="B122:I122" si="25">(((((((((B77)+(B81))+(B86))+(B93))+(B99))+(B104))+(B108))+(B112))+(B117))+(B121)</f>
+      <c r="B123" s="6">
+        <f t="shared" ref="B123:I123" si="25">(((((((((B78)+(B82))+(B87))+(B94))+(B100))+(B105))+(B109))+(B113))+(B118))+(B122)</f>
         <v>5426530.96</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C123" s="6">
         <f t="shared" si="25"/>
         <v>6327867.9099999992</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D123" s="6">
         <f t="shared" si="25"/>
         <v>5110771.0499999989</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E123" s="6">
         <f t="shared" si="25"/>
         <v>5297236.6999999993</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F123" s="6">
         <f t="shared" si="25"/>
         <v>5306533.1800000006</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G123" s="6">
         <f t="shared" si="25"/>
         <v>5629528.46</v>
       </c>
-      <c r="H122" s="6">
+      <c r="H123" s="6">
         <f t="shared" si="25"/>
         <v>5253735.58</v>
       </c>
-      <c r="I122" s="6">
+      <c r="I123" s="6">
         <f t="shared" si="25"/>
         <v>5367023.75</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-    </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4664,287 +4651,300 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="5">
+      <c r="B126" s="5">
         <f>741800</f>
         <v>741800</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C126" s="5">
         <f>1407750</f>
         <v>1407750</v>
       </c>
-      <c r="D125" s="5">
+      <c r="D126" s="5">
         <f>302750</f>
         <v>302750</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E126" s="5">
         <f>2421450</f>
         <v>2421450</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F126" s="5">
         <f>4920396</f>
         <v>4920396</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G126" s="5">
         <f>9571690</f>
         <v>9571690</v>
       </c>
-      <c r="H125" s="5">
+      <c r="H126" s="5">
         <f>1887310</f>
         <v>1887310</v>
       </c>
-      <c r="I125" s="5">
+      <c r="I126" s="5">
         <f>3103700</f>
         <v>3103700</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="5">
+      <c r="B127" s="5">
         <f>42435.29</f>
         <v>42435.29</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C127" s="5">
         <f>37799.42</f>
         <v>37799.42</v>
       </c>
-      <c r="D126" s="5">
+      <c r="D127" s="5">
         <f>55740.09</f>
         <v>55740.09</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E127" s="5">
         <f>24022.55</f>
         <v>24022.55</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F127" s="5">
         <f>18226.68</f>
         <v>18226.68</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G127" s="5">
         <f>19604</f>
         <v>19604</v>
       </c>
-      <c r="H126" s="5">
+      <c r="H127" s="5">
         <f>36780.2</f>
         <v>36780.199999999997</v>
       </c>
-      <c r="I126" s="5">
+      <c r="I127" s="5">
         <f>24491.4</f>
         <v>24491.4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B127" s="5">
+      <c r="B128" s="5">
         <f>6491</f>
         <v>6491</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C128" s="5">
         <f>675</f>
         <v>675</v>
       </c>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5">
+      <c r="D128" s="5"/>
+      <c r="E128" s="5">
         <f>1350</f>
         <v>1350</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F128" s="5">
         <f>24002</f>
         <v>24002</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G128" s="5">
         <f>675</f>
         <v>675</v>
       </c>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5">
+      <c r="H128" s="5"/>
+      <c r="I128" s="5">
         <f>119362</f>
         <v>119362</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="5">
+      <c r="B129" s="5">
         <f>341620</f>
         <v>341620</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C129" s="5">
         <f>2621105</f>
         <v>2621105</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D129" s="5">
         <f>281500</f>
         <v>281500</v>
       </c>
-      <c r="E128" s="5">
+      <c r="E129" s="5">
         <f>2568980</f>
         <v>2568980</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F129" s="5">
         <f>2096000</f>
         <v>2096000</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G129" s="5">
         <f>2319281</f>
         <v>2319281</v>
       </c>
-      <c r="H128" s="5">
+      <c r="H129" s="5">
         <f>866130</f>
         <v>866130</v>
       </c>
-      <c r="I128" s="5">
+      <c r="I129" s="5">
         <f>771180</f>
         <v>771180</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B129" s="6">
-        <f t="shared" ref="B129:I129" si="26">((((B124)+(B125))+(B126))+(B127))+(B128)</f>
+      <c r="B130" s="6">
+        <f t="shared" ref="B130:I130" si="26">((((B125)+(B126))+(B127))+(B128))+(B129)</f>
         <v>1132346.29</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C130" s="6">
         <f t="shared" si="26"/>
         <v>4067329.42</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D130" s="6">
         <f t="shared" si="26"/>
         <v>639990.09</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E130" s="6">
         <f t="shared" si="26"/>
         <v>5015802.55</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F130" s="6">
         <f t="shared" si="26"/>
         <v>7058624.6799999997</v>
       </c>
-      <c r="G129" s="6">
+      <c r="G130" s="6">
         <f t="shared" si="26"/>
         <v>11911250</v>
       </c>
-      <c r="H129" s="6">
+      <c r="H130" s="6">
         <f t="shared" si="26"/>
         <v>2790220.2</v>
       </c>
-      <c r="I129" s="6">
+      <c r="I130" s="6">
         <f t="shared" si="26"/>
         <v>4018733.4</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B130" s="6">
-        <f t="shared" ref="B130:I130" si="27">B129</f>
+      <c r="B131" s="6">
+        <f t="shared" ref="B131:I131" si="27">B130</f>
         <v>1132346.29</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C131" s="6">
         <f t="shared" si="27"/>
         <v>4067329.42</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D131" s="6">
         <f t="shared" si="27"/>
         <v>639990.09</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E131" s="6">
         <f t="shared" si="27"/>
         <v>5015802.55</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F131" s="6">
         <f t="shared" si="27"/>
         <v>7058624.6799999997</v>
       </c>
-      <c r="G130" s="6">
+      <c r="G131" s="6">
         <f t="shared" si="27"/>
         <v>11911250</v>
       </c>
-      <c r="H130" s="6">
+      <c r="H131" s="6">
         <f t="shared" si="27"/>
         <v>2790220.2</v>
       </c>
-      <c r="I130" s="6">
+      <c r="I131" s="6">
         <f t="shared" si="27"/>
         <v>4018733.4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B131" s="7">
-        <f t="shared" ref="B131:I131" si="28">((((B19)+(B64))-(B57))-(B122))-(B130)</f>
+      <c r="B132" s="7">
+        <f t="shared" ref="B132:I132" si="28">((((B20)+(B65))-(B58))-(B123))-(B131)</f>
         <v>1315418.6499999985</v>
       </c>
-      <c r="C131" s="7">
+      <c r="C132" s="7">
         <f t="shared" si="28"/>
         <v>2608510.8599999985</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D132" s="7">
         <f t="shared" si="28"/>
         <v>-6025369.1399999987</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E132" s="7">
         <f t="shared" si="28"/>
         <v>6560707.4500000002</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F132" s="7">
         <f t="shared" si="28"/>
         <v>9660915.6400000006</v>
       </c>
-      <c r="G131" s="7">
+      <c r="G132" s="7">
         <f t="shared" si="28"/>
         <v>17767290.75</v>
       </c>
-      <c r="H131" s="7">
+      <c r="H132" s="7">
         <f t="shared" si="28"/>
         <v>6099005.2199999997</v>
       </c>
-      <c r="I131" s="7">
+      <c r="I132" s="7">
         <f t="shared" si="28"/>
         <v>5039203.8499999996</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="3"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A135:I135"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A136:I136"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
